--- a/objetivos_e_refs - heuristica2  zcorte=0.9.xlsx
+++ b/objetivos_e_refs - heuristica2  zcorte=0.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj428\Documents\GitHub\metaheuristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90651865-391F-4B90-8F1D-A1A445638298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB01B26-44B9-42E2-A56C-3CEDDD2EA052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8336E0-137C-44F2-8A9A-8ECF625F53D4}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -586,16 +586,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3337</v>
+        <v>2183</v>
       </c>
       <c r="D3">
-        <v>2533</v>
+        <v>1057</v>
       </c>
       <c r="E3">
-        <v>2265</v>
+        <v>865</v>
       </c>
       <c r="F3">
-        <v>2265</v>
+        <v>865</v>
       </c>
       <c r="I3">
         <v>1936</v>
@@ -616,16 +616,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1772</v>
+        <v>1125</v>
       </c>
       <c r="D4">
-        <v>1852</v>
+        <v>732.99999999999989</v>
       </c>
       <c r="E4">
-        <v>1945</v>
+        <v>832</v>
       </c>
       <c r="F4">
-        <v>1945</v>
+        <v>832</v>
       </c>
       <c r="I4">
         <v>1042</v>
@@ -646,16 +646,16 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2093</v>
+        <v>2016</v>
       </c>
       <c r="D5">
-        <v>2083</v>
+        <v>1190</v>
       </c>
       <c r="E5">
-        <v>2141</v>
+        <v>805</v>
       </c>
       <c r="F5">
-        <v>2141</v>
+        <v>805</v>
       </c>
       <c r="I5">
         <v>1586</v>
@@ -676,16 +676,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3114</v>
+        <v>2411</v>
       </c>
       <c r="D6">
-        <v>2657</v>
+        <v>1251</v>
       </c>
       <c r="E6">
-        <v>2019</v>
+        <v>1251</v>
       </c>
       <c r="F6">
-        <v>2019</v>
+        <v>1251</v>
       </c>
       <c r="I6">
         <v>2139</v>
@@ -706,16 +706,16 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1392</v>
+        <v>1220</v>
       </c>
       <c r="D7">
-        <v>1305</v>
+        <v>1047</v>
       </c>
       <c r="E7">
-        <v>1333</v>
+        <v>582.00000000000011</v>
       </c>
       <c r="F7">
-        <v>1333</v>
+        <v>582</v>
       </c>
       <c r="I7">
         <v>1187</v>
@@ -736,16 +736,16 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1885</v>
+        <v>1866</v>
       </c>
       <c r="D8">
-        <v>1387</v>
+        <v>922</v>
       </c>
       <c r="E8">
-        <v>1387</v>
+        <v>922</v>
       </c>
       <c r="F8">
-        <v>1421</v>
+        <v>922</v>
       </c>
       <c r="I8">
         <v>1521</v>
@@ -766,16 +766,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2698</v>
+        <v>2271</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>1575</v>
       </c>
       <c r="E9">
-        <v>1693</v>
+        <v>1330</v>
       </c>
       <c r="F9">
-        <v>1693</v>
+        <v>1330</v>
       </c>
       <c r="I9">
         <v>2170</v>
@@ -796,16 +796,16 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2172</v>
+        <v>1798</v>
       </c>
       <c r="D10">
-        <v>1836</v>
+        <v>1483</v>
       </c>
       <c r="E10">
-        <v>1445</v>
+        <v>995.00000000000011</v>
       </c>
       <c r="F10">
-        <v>1445</v>
+        <v>995</v>
       </c>
       <c r="I10">
         <v>1720</v>
@@ -826,16 +826,16 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2068</v>
+        <v>1688</v>
       </c>
       <c r="D11">
-        <v>1714</v>
+        <v>904</v>
       </c>
       <c r="E11">
-        <v>1258</v>
+        <v>581.99999999999989</v>
       </c>
       <c r="F11">
-        <v>1258</v>
+        <v>582</v>
       </c>
       <c r="I11">
         <v>1574</v>
@@ -856,16 +856,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2425</v>
+        <v>2009</v>
       </c>
       <c r="D12">
-        <v>1963</v>
+        <v>1333</v>
       </c>
       <c r="E12">
-        <v>1750</v>
+        <v>935</v>
       </c>
       <c r="F12">
-        <v>1750</v>
+        <v>935.00000000000023</v>
       </c>
       <c r="I12">
         <v>1869</v>
@@ -888,16 +888,16 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>5366</v>
+        <v>4554</v>
       </c>
       <c r="D13">
-        <v>5087</v>
+        <v>3104</v>
       </c>
       <c r="E13">
-        <v>5462</v>
+        <v>3120</v>
       </c>
       <c r="F13">
-        <v>5462</v>
+        <v>3120</v>
       </c>
       <c r="I13">
         <v>4431</v>
@@ -918,16 +918,16 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>10462</v>
+        <v>9025</v>
       </c>
       <c r="D14">
-        <v>8682</v>
+        <v>5455</v>
       </c>
       <c r="E14">
-        <v>7436</v>
+        <v>3754</v>
       </c>
       <c r="F14">
-        <v>7436</v>
+        <v>3754</v>
       </c>
       <c r="I14">
         <v>8567</v>
@@ -948,16 +948,16 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>8644</v>
+        <v>6869</v>
       </c>
       <c r="D15">
-        <v>6492.9999999999991</v>
+        <v>4077</v>
       </c>
       <c r="E15">
-        <v>6818</v>
+        <v>3756</v>
       </c>
       <c r="F15">
-        <v>6817.9999999999991</v>
+        <v>3756</v>
       </c>
       <c r="I15">
         <v>6331</v>
@@ -978,16 +978,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>11171</v>
+        <v>9909</v>
       </c>
       <c r="D16">
-        <v>8801</v>
+        <v>5331</v>
       </c>
       <c r="E16">
-        <v>8489</v>
+        <v>3574</v>
       </c>
       <c r="F16">
-        <v>8489</v>
+        <v>3574</v>
       </c>
       <c r="I16">
         <v>9478</v>
@@ -1008,16 +1008,16 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>5835</v>
+        <v>4922</v>
       </c>
       <c r="D17">
-        <v>4557</v>
+        <v>2768</v>
       </c>
       <c r="E17">
-        <v>4632</v>
+        <v>2504</v>
       </c>
       <c r="F17">
-        <v>4632</v>
+        <v>2504</v>
       </c>
       <c r="I17">
         <v>4340</v>
@@ -1038,16 +1038,16 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>7536</v>
+        <v>6622</v>
       </c>
       <c r="D18">
-        <v>6745</v>
+        <v>4292</v>
       </c>
       <c r="E18">
-        <v>7648</v>
+        <v>3304</v>
       </c>
       <c r="F18">
-        <v>7648</v>
+        <v>3304</v>
       </c>
       <c r="I18">
         <v>6766</v>
@@ -1068,16 +1068,16 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>13329</v>
+        <v>11939</v>
       </c>
       <c r="D19">
-        <v>9806</v>
+        <v>7304</v>
       </c>
       <c r="E19">
-        <v>8141</v>
+        <v>5656</v>
       </c>
       <c r="F19">
-        <v>8141.0000000000018</v>
+        <v>5656</v>
       </c>
       <c r="I19">
         <v>11101</v>
@@ -1098,16 +1098,16 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>6054</v>
+        <v>4211</v>
       </c>
       <c r="D20">
-        <v>5717</v>
+        <v>2485</v>
       </c>
       <c r="E20">
-        <v>5743</v>
+        <v>1717</v>
       </c>
       <c r="F20">
-        <v>5743</v>
+        <v>1717</v>
       </c>
       <c r="I20">
         <v>4203</v>
@@ -1128,16 +1128,16 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>3913</v>
+        <v>4175</v>
       </c>
       <c r="D21">
-        <v>3489</v>
+        <v>2156</v>
       </c>
       <c r="E21">
-        <v>3394</v>
+        <v>2028</v>
       </c>
       <c r="F21">
-        <v>3394</v>
+        <v>2028</v>
       </c>
       <c r="I21">
         <v>3530</v>
@@ -1158,16 +1158,16 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>6297</v>
+        <v>5120</v>
       </c>
       <c r="D22">
-        <v>6297</v>
+        <v>3216</v>
       </c>
       <c r="E22">
-        <v>5645</v>
+        <v>2331</v>
       </c>
       <c r="F22">
-        <v>5645</v>
+        <v>2331</v>
       </c>
       <c r="I22">
         <v>5545</v>
@@ -1190,16 +1190,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>52905</v>
+        <v>42719</v>
       </c>
       <c r="D23">
-        <v>38667</v>
+        <v>24469</v>
       </c>
       <c r="E23">
-        <v>38669</v>
+        <v>20229</v>
       </c>
       <c r="F23">
-        <v>38669</v>
+        <v>20229</v>
       </c>
       <c r="I23">
         <v>42363</v>
@@ -1220,16 +1220,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>37141</v>
+        <v>33099</v>
       </c>
       <c r="D24">
-        <v>32053</v>
+        <v>18741</v>
       </c>
       <c r="E24">
-        <v>31222</v>
+        <v>16607</v>
       </c>
       <c r="F24">
-        <v>31222</v>
+        <v>16607</v>
       </c>
       <c r="I24">
         <v>33637</v>
@@ -1250,16 +1250,16 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>48804</v>
+        <v>34471</v>
       </c>
       <c r="D25">
-        <v>40711</v>
+        <v>21497</v>
       </c>
       <c r="E25">
-        <v>41105</v>
+        <v>16881</v>
       </c>
       <c r="F25">
-        <v>41105</v>
+        <v>16881</v>
       </c>
       <c r="I25">
         <v>37641</v>
@@ -1280,16 +1280,16 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>32723</v>
+        <v>28745</v>
       </c>
       <c r="D26">
-        <v>30915</v>
+        <v>18549</v>
       </c>
       <c r="E26">
-        <v>31681</v>
+        <v>14796</v>
       </c>
       <c r="F26">
-        <v>31681</v>
+        <v>14796</v>
       </c>
       <c r="I26">
         <v>30166</v>
@@ -1310,16 +1310,16 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>46790</v>
+        <v>34311</v>
       </c>
       <c r="D27">
-        <v>41735</v>
+        <v>18481</v>
       </c>
       <c r="E27">
-        <v>41817</v>
+        <v>15022</v>
       </c>
       <c r="F27">
-        <v>41817</v>
+        <v>15022</v>
       </c>
       <c r="I27">
         <v>32604</v>
@@ -1340,16 +1340,16 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>43630</v>
+        <v>36235</v>
       </c>
       <c r="D28">
-        <v>38589</v>
+        <v>21648</v>
       </c>
       <c r="E28">
-        <v>36331</v>
+        <v>16610</v>
       </c>
       <c r="F28">
-        <v>36331</v>
+        <v>16610</v>
       </c>
       <c r="I28">
         <v>36920</v>
@@ -1370,16 +1370,16 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>56746</v>
+        <v>45694</v>
       </c>
       <c r="D29">
-        <v>47225</v>
+        <v>23376</v>
       </c>
       <c r="E29">
-        <v>46453</v>
+        <v>20470</v>
       </c>
       <c r="F29">
-        <v>46453</v>
+        <v>20470</v>
       </c>
       <c r="I29">
         <v>44277</v>
@@ -1400,16 +1400,16 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>56540</v>
+        <v>44414</v>
       </c>
       <c r="D30">
-        <v>48007</v>
+        <v>27561</v>
       </c>
       <c r="E30">
-        <v>48357</v>
+        <v>22798</v>
       </c>
       <c r="F30">
-        <v>48357.000000000007</v>
+        <v>22798</v>
       </c>
       <c r="I30">
         <v>46065</v>
@@ -1430,16 +1430,16 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>42337</v>
+        <v>34756</v>
       </c>
       <c r="D31">
-        <v>33652</v>
+        <v>21928</v>
       </c>
       <c r="E31">
-        <v>32586</v>
+        <v>15991</v>
       </c>
       <c r="F31">
-        <v>32586</v>
+        <v>15991</v>
       </c>
       <c r="I31">
         <v>36397</v>
@@ -1460,16 +1460,16 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>41173</v>
+        <v>33489</v>
       </c>
       <c r="D32">
-        <v>37449</v>
+        <v>20501</v>
       </c>
       <c r="E32">
-        <v>35410</v>
+        <v>15609</v>
       </c>
       <c r="F32">
-        <v>35410</v>
+        <v>15609</v>
       </c>
       <c r="I32">
         <v>35797</v>
@@ -1492,16 +1492,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>185690</v>
+        <v>151247</v>
       </c>
       <c r="D33">
-        <v>164894</v>
+        <v>88251</v>
       </c>
       <c r="E33">
-        <v>166930</v>
+        <v>74379</v>
       </c>
       <c r="F33">
-        <v>166930</v>
+        <v>74379</v>
       </c>
       <c r="I33">
         <v>156103</v>
@@ -1522,16 +1522,16 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>172243</v>
+        <v>127623</v>
       </c>
       <c r="D34">
-        <v>150147</v>
+        <v>74884</v>
       </c>
       <c r="E34">
-        <v>146821</v>
+        <v>62201</v>
       </c>
       <c r="F34">
-        <v>146821</v>
+        <v>62200.999999999993</v>
       </c>
       <c r="I34">
         <v>132605</v>
@@ -1552,16 +1552,16 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>165985</v>
+        <v>136647</v>
       </c>
       <c r="D35">
-        <v>138345</v>
+        <v>82326</v>
       </c>
       <c r="E35">
-        <v>141456</v>
+        <v>74240</v>
       </c>
       <c r="F35">
-        <v>141456</v>
+        <v>74240</v>
       </c>
       <c r="I35">
         <v>137463</v>
@@ -1582,16 +1582,16 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>161259</v>
+        <v>131662</v>
       </c>
       <c r="D36">
-        <v>141891</v>
+        <v>82495</v>
       </c>
       <c r="E36">
-        <v>137279</v>
+        <v>71579</v>
       </c>
       <c r="F36">
-        <v>137279</v>
+        <v>71579</v>
       </c>
       <c r="I36">
         <v>137265</v>
@@ -1612,16 +1612,16 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>160522</v>
+        <v>128614</v>
       </c>
       <c r="D37">
-        <v>137540</v>
+        <v>72374</v>
       </c>
       <c r="E37">
-        <v>133639</v>
+        <v>61437</v>
       </c>
       <c r="F37">
-        <v>133639</v>
+        <v>61437</v>
       </c>
       <c r="I37">
         <v>136761</v>
@@ -1642,16 +1642,16 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>176127</v>
+        <v>143452</v>
       </c>
       <c r="D38">
-        <v>156658</v>
+        <v>80258.999999999985</v>
       </c>
       <c r="E38">
-        <v>152762</v>
+        <v>71119</v>
       </c>
       <c r="F38">
-        <v>152762</v>
+        <v>71119</v>
       </c>
       <c r="I38">
         <v>151938</v>
@@ -1672,16 +1672,16 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>172989</v>
+        <v>137485</v>
       </c>
       <c r="D39">
-        <v>144787</v>
+        <v>79572</v>
       </c>
       <c r="E39">
-        <v>138382</v>
+        <v>69417</v>
       </c>
       <c r="F39">
-        <v>138382</v>
+        <v>69417.000000000015</v>
       </c>
       <c r="I39">
         <v>141613</v>
@@ -1702,16 +1702,16 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <v>215287</v>
+        <v>165585</v>
       </c>
       <c r="D40">
-        <v>181708</v>
+        <v>98978</v>
       </c>
       <c r="E40">
-        <v>188087</v>
+        <v>82339</v>
       </c>
       <c r="F40">
-        <v>188087</v>
+        <v>82339</v>
       </c>
       <c r="I40">
         <v>168086</v>
@@ -1732,16 +1732,16 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>156343</v>
+        <v>120210</v>
       </c>
       <c r="D41">
-        <v>139298</v>
+        <v>70782</v>
       </c>
       <c r="E41">
-        <v>143273</v>
+        <v>64163</v>
       </c>
       <c r="F41">
-        <v>143273</v>
+        <v>64163</v>
       </c>
       <c r="I41">
         <v>125153</v>
@@ -1762,16 +1762,16 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>151475</v>
+        <v>120309</v>
       </c>
       <c r="D42">
-        <v>136193</v>
+        <v>74170</v>
       </c>
       <c r="E42">
-        <v>133761</v>
+        <v>63266</v>
       </c>
       <c r="F42">
-        <v>133761</v>
+        <v>63266</v>
       </c>
       <c r="I42">
         <v>124446</v>
@@ -1794,16 +1794,16 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>656610</v>
+        <v>504459</v>
       </c>
       <c r="D43">
-        <v>571267</v>
+        <v>300525</v>
       </c>
       <c r="E43">
-        <v>575481</v>
+        <v>261576</v>
       </c>
       <c r="F43">
-        <v>575481</v>
+        <v>261576</v>
       </c>
       <c r="I43">
         <v>526666</v>
@@ -1824,16 +1824,16 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>691968</v>
+        <v>547305</v>
       </c>
       <c r="D44">
-        <v>622827</v>
+        <v>325036</v>
       </c>
       <c r="E44">
-        <v>618337</v>
+        <v>278828</v>
       </c>
       <c r="F44">
-        <v>618337.00000000012</v>
+        <v>278828</v>
       </c>
       <c r="I44">
         <v>566643</v>
@@ -1854,16 +1854,16 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>627638</v>
+        <v>496489</v>
       </c>
       <c r="D45">
-        <v>565077</v>
+        <v>299645</v>
       </c>
       <c r="E45">
-        <v>553748</v>
+        <v>266057</v>
       </c>
       <c r="F45">
-        <v>553748</v>
+        <v>266057</v>
       </c>
       <c r="I45">
         <v>529919</v>
@@ -1884,16 +1884,16 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>742114</v>
+        <v>595700</v>
       </c>
       <c r="D46">
-        <v>653975</v>
+        <v>365309</v>
       </c>
       <c r="E46">
-        <v>634557</v>
+        <v>306919</v>
       </c>
       <c r="F46">
-        <v>634557</v>
+        <v>306918.99999999988</v>
       </c>
       <c r="I46">
         <v>603709</v>
@@ -1914,16 +1914,16 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>664974</v>
+        <v>531122</v>
       </c>
       <c r="D47">
-        <v>583946</v>
+        <v>313065</v>
       </c>
       <c r="E47">
-        <v>595809</v>
+        <v>266355</v>
       </c>
       <c r="F47">
-        <v>595809</v>
+        <v>266355</v>
       </c>
       <c r="I47">
         <v>547953</v>
@@ -1944,16 +1944,16 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>607017</v>
+        <v>489792</v>
       </c>
       <c r="D48">
-        <v>559442</v>
+        <v>285248</v>
       </c>
       <c r="E48">
-        <v>570427</v>
+        <v>244148</v>
       </c>
       <c r="F48">
-        <v>570427</v>
+        <v>244148</v>
       </c>
       <c r="I48">
         <v>502276</v>
@@ -1974,16 +1974,16 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>583597</v>
+        <v>465461</v>
       </c>
       <c r="D49">
-        <v>524278</v>
+        <v>276555</v>
       </c>
       <c r="E49">
-        <v>536424</v>
+        <v>258985</v>
       </c>
       <c r="F49">
-        <v>536424</v>
+        <v>258985</v>
       </c>
       <c r="I49">
         <v>479651</v>
@@ -2004,16 +2004,16 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>649270</v>
+        <v>506033</v>
       </c>
       <c r="D50">
-        <v>585592</v>
+        <v>284706</v>
       </c>
       <c r="E50">
-        <v>575352</v>
+        <v>241180</v>
       </c>
       <c r="F50">
-        <v>575352</v>
+        <v>241180</v>
       </c>
       <c r="I50">
         <v>530896</v>
@@ -2034,16 +2034,16 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>688281</v>
+        <v>542366</v>
       </c>
       <c r="D51">
-        <v>604055</v>
+        <v>323980</v>
       </c>
       <c r="E51">
-        <v>590103</v>
+        <v>264231</v>
       </c>
       <c r="F51">
-        <v>590103</v>
+        <v>264231</v>
       </c>
       <c r="I51">
         <v>575353</v>
@@ -2064,16 +2064,16 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>656981</v>
+        <v>551049</v>
       </c>
       <c r="D52">
-        <v>559775</v>
+        <v>327149</v>
       </c>
       <c r="E52">
-        <v>541067</v>
+        <v>290598</v>
       </c>
       <c r="F52">
-        <v>541067</v>
+        <v>290598</v>
       </c>
       <c r="I52">
         <v>572866</v>
@@ -2096,16 +2096,16 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>3790622</v>
+        <v>2991248</v>
       </c>
       <c r="D53">
-        <v>3484495</v>
+        <v>1844049</v>
       </c>
       <c r="E53">
-        <v>3538654</v>
+        <v>1617377</v>
       </c>
       <c r="F53">
-        <v>3538654</v>
+        <v>1617377</v>
       </c>
       <c r="I53">
         <v>3113088</v>
@@ -2126,16 +2126,16 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>4325551</v>
+        <v>3415885</v>
       </c>
       <c r="D54">
-        <v>3806149</v>
+        <v>2022069</v>
       </c>
       <c r="E54">
-        <v>3862333</v>
+        <v>1769394</v>
       </c>
       <c r="F54">
-        <v>3862333</v>
+        <v>1769394</v>
       </c>
       <c r="I54">
         <v>3569058</v>
@@ -2156,16 +2156,16 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>4001676</v>
+        <v>3147973</v>
       </c>
       <c r="D55">
-        <v>3667600</v>
+        <v>1899689</v>
       </c>
       <c r="E55">
-        <v>3743931</v>
+        <v>1659393</v>
       </c>
       <c r="F55">
-        <v>3743931</v>
+        <v>1659393</v>
       </c>
       <c r="I55">
         <v>3300744</v>
@@ -2186,16 +2186,16 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>4245821</v>
+        <v>3266428</v>
       </c>
       <c r="D56">
-        <v>3791646</v>
+        <v>1906027</v>
       </c>
       <c r="E56">
-        <v>3862407</v>
+        <v>1682612</v>
       </c>
       <c r="F56">
-        <v>3862407</v>
+        <v>1682612</v>
       </c>
       <c r="I56">
         <v>3408867</v>
@@ -2216,16 +2216,16 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>4036659</v>
+        <v>3171483</v>
       </c>
       <c r="D57">
-        <v>3574398</v>
+        <v>1841400</v>
       </c>
       <c r="E57">
-        <v>3558555</v>
+        <v>1521967</v>
       </c>
       <c r="F57">
-        <v>3558555</v>
+        <v>1521967</v>
       </c>
       <c r="I57">
         <v>3377547</v>
@@ -2246,16 +2246,16 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>3727260</v>
+        <v>2840580</v>
       </c>
       <c r="D58">
-        <v>3427747</v>
+        <v>1635682</v>
       </c>
       <c r="E58">
-        <v>3464952</v>
+        <v>1437066</v>
       </c>
       <c r="F58">
-        <v>3464952</v>
+        <v>1437066</v>
       </c>
       <c r="I58">
         <v>3024082</v>
@@ -2276,16 +2276,16 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>4065161</v>
+        <v>3222159</v>
       </c>
       <c r="D59">
-        <v>3725786</v>
+        <v>1948283</v>
       </c>
       <c r="E59">
-        <v>3749745</v>
+        <v>1664992</v>
       </c>
       <c r="F59">
-        <v>3749745</v>
+        <v>1664992</v>
       </c>
       <c r="I59">
         <v>3381166</v>
@@ -2306,16 +2306,16 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>4072370</v>
+        <v>3170723</v>
       </c>
       <c r="D60">
-        <v>3623489</v>
+        <v>1841953</v>
       </c>
       <c r="E60">
-        <v>3659331</v>
+        <v>1602625</v>
       </c>
       <c r="F60">
-        <v>3659331</v>
+        <v>1602625</v>
       </c>
       <c r="I60">
         <v>3376678</v>
@@ -2336,16 +2336,16 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>4387827</v>
+        <v>3414900</v>
       </c>
       <c r="D61">
-        <v>3896190</v>
+        <v>2009599</v>
       </c>
       <c r="E61">
-        <v>3928447</v>
+        <v>1724442</v>
       </c>
       <c r="F61">
-        <v>3928447</v>
+        <v>1724442</v>
       </c>
       <c r="I61">
         <v>3617807</v>
@@ -2366,16 +2366,16 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>4033335</v>
+        <v>3171871</v>
       </c>
       <c r="D62">
-        <v>3725310</v>
+        <v>1878746</v>
       </c>
       <c r="E62">
-        <v>3688909</v>
+        <v>1553853</v>
       </c>
       <c r="F62">
-        <v>3688909</v>
+        <v>1553853</v>
       </c>
       <c r="I62">
         <v>3315019</v>
@@ -2398,16 +2398,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>17757886</v>
+        <v>14221324</v>
       </c>
       <c r="D63">
-        <v>15440300</v>
+        <v>8225536</v>
       </c>
       <c r="E63">
-        <v>15173482</v>
+        <v>6795971</v>
       </c>
       <c r="F63">
-        <v>15173482</v>
+        <v>6795971</v>
       </c>
       <c r="I63">
         <v>15190371</v>
@@ -2428,16 +2428,16 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>15709283</v>
+        <v>12405419</v>
       </c>
       <c r="D64">
-        <v>13880009</v>
+        <v>7410648</v>
       </c>
       <c r="E64">
-        <v>13859534</v>
+        <v>6323474</v>
       </c>
       <c r="F64">
-        <v>13859534</v>
+        <v>6323474</v>
       </c>
       <c r="I64">
         <v>13356727</v>
@@ -2458,16 +2458,16 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>15771520</v>
+        <v>12141282</v>
       </c>
       <c r="D65">
-        <v>14358721</v>
+        <v>7083530</v>
       </c>
       <c r="E65">
-        <v>14473233</v>
+        <v>6119079</v>
       </c>
       <c r="F65">
-        <v>14473233</v>
+        <v>6119079</v>
       </c>
       <c r="I65">
         <v>12919259</v>
@@ -2488,16 +2488,16 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>15534819</v>
+        <v>11905414</v>
       </c>
       <c r="D66">
-        <v>14039156</v>
+        <v>7163958</v>
       </c>
       <c r="E66">
-        <v>14032755</v>
+        <v>6236944</v>
       </c>
       <c r="F66">
-        <v>14032755</v>
+        <v>6236944</v>
       </c>
       <c r="I66">
         <v>12705290</v>
@@ -2518,16 +2518,16 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>16152849</v>
+        <v>12606576</v>
       </c>
       <c r="D67">
-        <v>14696949</v>
+        <v>7483985</v>
       </c>
       <c r="E67">
-        <v>14805522</v>
+        <v>6511722</v>
       </c>
       <c r="F67">
-        <v>14805522</v>
+        <v>6511722</v>
       </c>
       <c r="I67">
         <v>13276868</v>
@@ -2548,16 +2548,16 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>15373746</v>
+        <v>11779415</v>
       </c>
       <c r="D68">
-        <v>14072630</v>
+        <v>7018090</v>
       </c>
       <c r="E68">
-        <v>14301345</v>
+        <v>6206903</v>
       </c>
       <c r="F68">
-        <v>14301345</v>
+        <v>6206903</v>
       </c>
       <c r="I68">
         <v>12236080</v>
@@ -2578,16 +2578,16 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>16792541</v>
+        <v>13428787</v>
       </c>
       <c r="D69">
-        <v>14815041</v>
+        <v>7937995</v>
       </c>
       <c r="E69">
-        <v>14690242</v>
+        <v>6886161</v>
       </c>
       <c r="F69">
-        <v>14690242</v>
+        <v>6886161</v>
       </c>
       <c r="I69">
         <v>14160773</v>
@@ -2608,16 +2608,16 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>15819079</v>
+        <v>12425364</v>
       </c>
       <c r="D70">
-        <v>14132204</v>
+        <v>7369125</v>
       </c>
       <c r="E70">
-        <v>14149040</v>
+        <v>6276619</v>
       </c>
       <c r="F70">
-        <v>14149040</v>
+        <v>6276619</v>
       </c>
       <c r="I70">
         <v>13314723</v>
@@ -2638,16 +2638,16 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>15149481</v>
+        <v>11915185</v>
       </c>
       <c r="D71">
-        <v>13758278</v>
+        <v>7171651</v>
       </c>
       <c r="E71">
-        <v>13724902</v>
+        <v>6334786</v>
       </c>
       <c r="F71">
-        <v>13724902</v>
+        <v>6334786</v>
       </c>
       <c r="I71">
         <v>12433821</v>
@@ -2668,16 +2668,16 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>16344639</v>
+        <v>12598040</v>
       </c>
       <c r="D72">
-        <v>14653353</v>
+        <v>7409265</v>
       </c>
       <c r="E72">
-        <v>14579063</v>
+        <v>6340372</v>
       </c>
       <c r="F72">
-        <v>14579063</v>
+        <v>6340372</v>
       </c>
       <c r="I72">
         <v>13395234</v>
